--- a/data/receitas_2022.xlsx
+++ b/data/receitas_2022.xlsx
@@ -507,8 +507,8 @@
   </sheetPr>
   <dimension ref="A1:W449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6121,7 +6121,9 @@
       <c r="W160" s="5"/>
     </row>
     <row r="161" spans="1:23" ht="12.75">
-      <c r="A161" s="7"/>
+      <c r="A161" s="7">
+        <v>44707</v>
+      </c>
       <c r="B161" s="8" t="s">
         <v>22</v>
       </c>
@@ -6154,7 +6156,9 @@
       <c r="W161" s="5"/>
     </row>
     <row r="162" spans="1:23" ht="12.75">
-      <c r="A162" s="7"/>
+      <c r="A162" s="7">
+        <v>44707</v>
+      </c>
       <c r="B162" s="8" t="s">
         <v>22</v>
       </c>
@@ -6187,7 +6191,9 @@
       <c r="W162" s="5"/>
     </row>
     <row r="163" spans="1:23" ht="12.75">
-      <c r="A163" s="7"/>
+      <c r="A163" s="7">
+        <v>44707</v>
+      </c>
       <c r="B163" s="8" t="s">
         <v>22</v>
       </c>
